--- a/data/raw/user_inputs_regions/user_inputs_RSAF.xlsx
+++ b/data/raw/user_inputs_regions/user_inputs_RSAF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>parameter</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>chemical_recycling_gasification</t>
+  </si>
+  <si>
+    <t>chemical_recycling_pyrolysis</t>
   </si>
   <si>
     <t>fossil_routes</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -526,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -537,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -556,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -622,16 +625,13 @@
       <c r="B15" t="b">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
+      <c r="B16" t="b">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -655,51 +655,51 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="b">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
+      <c r="B22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="b">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -710,6 +710,17 @@
         <v>25</v>
       </c>
       <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="b">
         <v>0</v>
       </c>
     </row>
